--- a/焦炭/eta/焦炭港口仓单价_月度数据.xlsx
+++ b/焦炭/eta/焦炭港口仓单价_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>1513.9557</v>
+        <v>1882.1228</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1545.9057</v>
+        <v>1556.2724</v>
       </c>
       <c r="C3" t="n">
-        <v>1561.3749</v>
+        <v>1599.0988</v>
       </c>
     </row>
     <row r="4">
